--- a/coling2016/props/Slice-COLING-2016-results.xlsx
+++ b/coling2016/props/Slice-COLING-2016-results.xlsx
@@ -2058,11 +2058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1983025880"/>
-        <c:axId val="-1983391672"/>
+        <c:axId val="-2133911576"/>
+        <c:axId val="-2078739848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1983025880"/>
+        <c:axId val="-2133911576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983391672"/>
+        <c:crossAx val="-2078739848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2100,7 +2100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1983391672"/>
+        <c:axId val="-2078739848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2121,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1983025880"/>
+        <c:crossAx val="-2133911576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2333,11 +2333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2033330744"/>
-        <c:axId val="-1983609016"/>
+        <c:axId val="-2134728504"/>
+        <c:axId val="-2079244008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2033330744"/>
+        <c:axId val="-2134728504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983609016"/>
+        <c:crossAx val="-2079244008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2375,7 +2375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1983609016"/>
+        <c:axId val="-2079244008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160.0"/>
@@ -2398,7 +2398,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2033330744"/>
+        <c:crossAx val="-2134728504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3335,11 +3335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1982899224"/>
-        <c:axId val="-1983793800"/>
+        <c:axId val="-2079164856"/>
+        <c:axId val="-2079159672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1982899224"/>
+        <c:axId val="-2079164856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,7 +3371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983793800"/>
+        <c:crossAx val="-2079159672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3379,7 +3379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1983793800"/>
+        <c:axId val="-2079159672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3424,7 +3424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1982899224"/>
+        <c:crossAx val="-2079164856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -4230,11 +4230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2033325368"/>
-        <c:axId val="-1983734376"/>
+        <c:axId val="-2133940856"/>
+        <c:axId val="-2133935720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2033325368"/>
+        <c:axId val="-2133940856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983734376"/>
+        <c:crossAx val="-2133935720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4274,7 +4274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1983734376"/>
+        <c:axId val="-2133935720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4319,7 +4319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033325368"/>
+        <c:crossAx val="-2133940856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -5125,11 +5125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1983823304"/>
-        <c:axId val="-1983662264"/>
+        <c:axId val="-2140285944"/>
+        <c:axId val="-2078371784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1983823304"/>
+        <c:axId val="-2140285944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5161,7 +5161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983662264"/>
+        <c:crossAx val="-2078371784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5169,7 +5169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1983662264"/>
+        <c:axId val="-2078371784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -5214,7 +5214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983823304"/>
+        <c:crossAx val="-2140285944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -6020,11 +6020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1983103784"/>
-        <c:axId val="-1982953640"/>
+        <c:axId val="-2078457304"/>
+        <c:axId val="-2078772776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1983103784"/>
+        <c:axId val="-2078457304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6056,7 +6056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1982953640"/>
+        <c:crossAx val="-2078772776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6064,7 +6064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1982953640"/>
+        <c:axId val="-2078772776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6109,7 +6109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983103784"/>
+        <c:crossAx val="-2078457304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -6640,11 +6640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1983369544"/>
-        <c:axId val="-1983030808"/>
+        <c:axId val="-2133912552"/>
+        <c:axId val="-2134765848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1983369544"/>
+        <c:axId val="-2133912552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6676,7 +6676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983030808"/>
+        <c:crossAx val="-2134765848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6684,7 +6684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1983030808"/>
+        <c:axId val="-2134765848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90.0"/>
@@ -6721,7 +6721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983369544"/>
+        <c:crossAx val="-2133912552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -8027,7 +8027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>

--- a/coling2016/props/Slice-COLING-2016-results.xlsx
+++ b/coling2016/props/Slice-COLING-2016-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="630"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetStats" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="81">
   <si>
     <t>Slice data</t>
   </si>
@@ -351,7 +351,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="732">
+  <cellStyleXfs count="742">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,6 +448,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1103,7 +1113,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="732">
+  <cellStyles count="742">
     <cellStyle name="Comma 2" xfId="95"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1470,6 +1480,11 @@
     <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1835,6 +1850,11 @@
     <cellStyle name="Hyperlink" xfId="726" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="728" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2058,11 +2078,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2133911576"/>
-        <c:axId val="-2078739848"/>
+        <c:axId val="2081734248"/>
+        <c:axId val="2081737384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133911576"/>
+        <c:axId val="2081734248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078739848"/>
+        <c:crossAx val="2081737384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2100,7 +2120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078739848"/>
+        <c:axId val="2081737384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2141,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133911576"/>
+        <c:crossAx val="2081734248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2168,6 +2188,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2333,11 +2354,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2134728504"/>
-        <c:axId val="-2079244008"/>
+        <c:axId val="-2124267160"/>
+        <c:axId val="-2124310232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134728504"/>
+        <c:axId val="-2124267160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079244008"/>
+        <c:crossAx val="-2124310232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2375,7 +2396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079244008"/>
+        <c:axId val="-2124310232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160.0"/>
@@ -2398,7 +2419,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134728504"/>
+        <c:crossAx val="-2124267160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3335,11 +3356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2079164856"/>
-        <c:axId val="-2079159672"/>
+        <c:axId val="-1989844232"/>
+        <c:axId val="-1989838872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2079164856"/>
+        <c:axId val="-1989844232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,7 +3392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079159672"/>
+        <c:crossAx val="-1989838872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3379,7 +3400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079159672"/>
+        <c:axId val="-1989838872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3424,7 +3445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079164856"/>
+        <c:crossAx val="-1989844232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -4230,11 +4251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133940856"/>
-        <c:axId val="-2133935720"/>
+        <c:axId val="-1989791128"/>
+        <c:axId val="-1989785896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133940856"/>
+        <c:axId val="-1989791128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133935720"/>
+        <c:crossAx val="-1989785896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4274,7 +4295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133935720"/>
+        <c:axId val="-1989785896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4319,7 +4340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133940856"/>
+        <c:crossAx val="-1989791128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -5125,11 +5146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2140285944"/>
-        <c:axId val="-2078371784"/>
+        <c:axId val="-1989738376"/>
+        <c:axId val="-1989733144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2140285944"/>
+        <c:axId val="-1989738376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5161,7 +5182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078371784"/>
+        <c:crossAx val="-1989733144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5169,7 +5190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078371784"/>
+        <c:axId val="-1989733144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -5214,7 +5235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140285944"/>
+        <c:crossAx val="-1989738376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -6020,11 +6041,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078457304"/>
-        <c:axId val="-2078772776"/>
+        <c:axId val="-1989685480"/>
+        <c:axId val="-1989680248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078457304"/>
+        <c:axId val="-1989685480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6056,7 +6077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078772776"/>
+        <c:crossAx val="-1989680248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6064,7 +6085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078772776"/>
+        <c:axId val="-1989680248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6109,7 +6130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078457304"/>
+        <c:crossAx val="-1989685480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -6640,11 +6661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133912552"/>
-        <c:axId val="-2134765848"/>
+        <c:axId val="-1989630856"/>
+        <c:axId val="-1989625720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133912552"/>
+        <c:axId val="-1989630856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6676,7 +6697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134765848"/>
+        <c:crossAx val="-1989625720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6684,7 +6705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134765848"/>
+        <c:axId val="-1989625720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90.0"/>
@@ -6721,7 +6742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133912552"/>
+        <c:crossAx val="-1989630856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -6801,13 +6822,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7317,10 +7338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7645,366 +7666,379 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.80650738341681905</v>
-      </c>
-      <c r="D21">
-        <v>29</v>
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C3:C18)</f>
+        <v>0.87247682256905146</v>
       </c>
       <c r="E21">
-        <v>13387692</v>
+        <f>AVERAGE(E3:E18)</f>
+        <v>760030.1875</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.80650738341681905</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>13387692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>290000</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>0.68648200110365698</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>3647</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>1042660</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>128150</v>
+        <v>1042660</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2811587</v>
+        <v>128150</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>119849</v>
+        <v>2811587</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>314516</v>
+        <v>119849</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>314516</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C31">
-        <v>351326</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>12691</v>
+        <v>351326</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
-        <v>9660</v>
+        <v>12691</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C34">
-        <v>460695</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>1151741</v>
+        <v>460695</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>1020877</v>
+        <v>1151741</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>385428</v>
+        <v>1020877</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>3523</v>
+        <v>385428</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>159666</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>227994</v>
+        <v>159666</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C41">
-        <v>753339</v>
+        <v>227994</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C42">
-        <v>715</v>
+        <v>753339</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43">
-        <v>30824</v>
+        <v>715</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44">
-        <v>1248</v>
+        <v>30824</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C45">
-        <v>52483</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>931</v>
+        <v>52483</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C47">
-        <v>151855</v>
+        <v>931</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>461746</v>
+        <v>151855</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C49">
-        <v>813476</v>
+        <v>461746</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C50">
-        <v>23256</v>
+        <v>813476</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C51">
-        <v>2175757</v>
+        <v>23256</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C52">
-        <v>718004</v>
+        <v>2175757</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
+        <v>280000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <v>718004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
         <v>290000</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>3647</v>
       </c>
     </row>
@@ -8027,7 +8061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>

--- a/coling2016/props/Slice-COLING-2016-results.xlsx
+++ b/coling2016/props/Slice-COLING-2016-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetStats" sheetId="14" r:id="rId1"/>
@@ -2078,11 +2078,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2081734248"/>
-        <c:axId val="2081737384"/>
+        <c:axId val="-2076242760"/>
+        <c:axId val="-1989439592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2081734248"/>
+        <c:axId val="-2076242760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081737384"/>
+        <c:crossAx val="-1989439592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2120,7 +2120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081737384"/>
+        <c:axId val="-1989439592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,7 +2141,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081734248"/>
+        <c:crossAx val="-2076242760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2354,11 +2354,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124267160"/>
-        <c:axId val="-2124310232"/>
+        <c:axId val="-2122554984"/>
+        <c:axId val="-2077108328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124267160"/>
+        <c:axId val="-2122554984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124310232"/>
+        <c:crossAx val="-2077108328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2396,7 +2396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124310232"/>
+        <c:axId val="-2077108328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160.0"/>
@@ -2419,7 +2419,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124267160"/>
+        <c:crossAx val="-2122554984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2457,7 +2457,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976191802599308"/>
+          <c:x val="0.118326686731027"/>
           <c:y val="0.129620675926745"/>
           <c:w val="0.489758208610464"/>
           <c:h val="0.364168141201451"/>
@@ -3356,11 +3356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1989844232"/>
-        <c:axId val="-1989838872"/>
+        <c:axId val="-1988812792"/>
+        <c:axId val="-1988338584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1989844232"/>
+        <c:axId val="-1988812792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,9 +3372,8 @@
         <c:spPr>
           <a:effectLst>
             <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
                 <a:alpha val="43000"/>
               </a:schemeClr>
             </a:outerShdw>
@@ -3387,12 +3386,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989838872"/>
+        <c:crossAx val="-1988338584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3400,7 +3399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989838872"/>
+        <c:axId val="-1988338584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3425,27 +3424,19 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-                <a:alpha val="43000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989844232"/>
+        <c:crossAx val="-1988812792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -3457,8 +3448,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0719789663910648"/>
-          <c:y val="0.0280898876404494"/>
+          <c:x val="0.116845230411772"/>
+          <c:y val="0.0308988764044944"/>
           <c:w val="0.54106988783434"/>
           <c:h val="0.112592453330974"/>
         </c:manualLayout>
@@ -3469,7 +3460,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000"/>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -3508,8 +3499,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.070381200192944"/>
-          <c:y val="0.118384720870565"/>
+          <c:x val="0.124242457182067"/>
+          <c:y val="0.13242966469079"/>
           <c:w val="0.489758208610464"/>
           <c:h val="0.364168141201451"/>
         </c:manualLayout>
@@ -4251,11 +4242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1989791128"/>
-        <c:axId val="-1989785896"/>
+        <c:axId val="-2002981064"/>
+        <c:axId val="-1989062280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1989791128"/>
+        <c:axId val="-2002981064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4267,9 +4258,8 @@
         <c:spPr>
           <a:effectLst>
             <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
                 <a:alpha val="43000"/>
               </a:schemeClr>
             </a:outerShdw>
@@ -4282,12 +4272,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989785896"/>
+        <c:crossAx val="-1989062280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4295,7 +4285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989785896"/>
+        <c:axId val="-1989062280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4320,27 +4310,19 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-                <a:alpha val="43000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989791128"/>
+        <c:crossAx val="-2002981064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -4352,9 +4334,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.054722710998485"/>
-          <c:y val="0.0196629213483146"/>
-          <c:w val="0.527264883520276"/>
+          <c:x val="0.123747732568804"/>
+          <c:y val="0.0337078651685393"/>
+          <c:w val="0.513459879206212"/>
           <c:h val="0.112592453330974"/>
         </c:manualLayout>
       </c:layout>
@@ -4364,7 +4346,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000"/>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4403,8 +4385,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.070381200192944"/>
-          <c:y val="0.118384720870565"/>
+          <c:x val="0.125968082721325"/>
+          <c:y val="0.1425783168233"/>
           <c:w val="0.489758208610464"/>
           <c:h val="0.364168141201451"/>
         </c:manualLayout>
@@ -5146,11 +5128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1989738376"/>
-        <c:axId val="-1989733144"/>
+        <c:axId val="-2073068584"/>
+        <c:axId val="-2002186280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1989738376"/>
+        <c:axId val="-2073068584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5162,9 +5144,8 @@
         <c:spPr>
           <a:effectLst>
             <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
                 <a:alpha val="43000"/>
               </a:schemeClr>
             </a:outerShdw>
@@ -5177,12 +5158,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989733144"/>
+        <c:crossAx val="-2002186280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5190,7 +5171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989733144"/>
+        <c:axId val="-2002186280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -5215,27 +5196,19 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-                <a:alpha val="43000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989738376"/>
+        <c:crossAx val="-2073068584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -5247,8 +5220,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.052997085459227"/>
-          <c:y val="0.0197836762340191"/>
+          <c:x val="0.12719898364732"/>
+          <c:y val="0.0359127084920836"/>
           <c:w val="0.527264883520276"/>
           <c:h val="0.112592453330974"/>
         </c:manualLayout>
@@ -5259,7 +5232,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000"/>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -5298,8 +5271,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.070381200192944"/>
-          <c:y val="0.118384720870565"/>
+          <c:x val="0.129419333799841"/>
+          <c:y val="0.131825628651257"/>
           <c:w val="0.489758208610464"/>
           <c:h val="0.364168141201451"/>
         </c:manualLayout>
@@ -6041,11 +6014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1989685480"/>
-        <c:axId val="-1989680248"/>
+        <c:axId val="-2073667352"/>
+        <c:axId val="-1988807928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1989685480"/>
+        <c:axId val="-2073667352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6057,9 +6030,8 @@
         <c:spPr>
           <a:effectLst>
             <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
                 <a:alpha val="43000"/>
               </a:schemeClr>
             </a:outerShdw>
@@ -6072,12 +6044,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989680248"/>
+        <c:crossAx val="-1988807928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6085,7 +6057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989680248"/>
+        <c:axId val="-1988807928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6110,27 +6082,19 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-                <a:alpha val="43000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989685480"/>
+        <c:crossAx val="-2073667352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -6142,8 +6106,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.052997085459227"/>
-          <c:y val="0.0197836762340191"/>
+          <c:x val="0.12719898364732"/>
+          <c:y val="0.0278481923630514"/>
           <c:w val="0.53244176013805"/>
           <c:h val="0.112592453330974"/>
         </c:manualLayout>
@@ -6154,7 +6118,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000"/>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -6193,10 +6157,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127050517141414"/>
-          <c:y val="0.21362291252055"/>
-          <c:w val="0.567559616211869"/>
-          <c:h val="0.488758328285887"/>
+          <c:x val="0.150803486262554"/>
+          <c:y val="0.209959908857547"/>
+          <c:w val="0.66257149269643"/>
+          <c:h val="0.466780306307865"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6661,11 +6625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1989630856"/>
-        <c:axId val="-1989625720"/>
+        <c:axId val="-1988502856"/>
+        <c:axId val="-2003032440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1989630856"/>
+        <c:axId val="-1988502856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6677,9 +6641,8 @@
         <c:spPr>
           <a:effectLst>
             <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
                 <a:alpha val="43000"/>
               </a:schemeClr>
             </a:outerShdw>
@@ -6692,12 +6655,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989625720"/>
+        <c:crossAx val="-2003032440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6705,7 +6668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989625720"/>
+        <c:axId val="-2003032440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90.0"/>
@@ -6737,12 +6700,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989630856"/>
+        <c:crossAx val="-1988502856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -6754,9 +6717,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.125579890399686"/>
-          <c:y val="0.0507790372357301"/>
-          <c:w val="0.582202105971908"/>
+          <c:x val="0.154083453345054"/>
+          <c:y val="0.0471160335727265"/>
+          <c:w val="0.684339873192811"/>
           <c:h val="0.170551469527848"/>
         </c:manualLayout>
       </c:layout>
@@ -6766,7 +6729,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000"/>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -6952,15 +6915,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7340,7 +7303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -8061,8 +8024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
